--- a/biology/Botanique/Clade_BEP/Clade_BEP.xlsx
+++ b/biology/Botanique/Clade_BEP/Clade_BEP.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le clade BEP (Bambusoideae, Ehrhartoideae, Pooideae) est un clade de plantes de la famille des Poaceae.
 Ce clade, qui regroupe plus de 5400 espèces, soit près de la moitié des espèces de la famille, est l'une des deux grandes lignées évolutives, de rang taxonomique  non précisé, définies chez les graminées.
-Son groupe frère est le clade PACMAD. Contrairement à ce dernier, dont beaucoup d'espèces ont évolué vers la photosynthèse en C4, les plantes du clade BEP utilisent toutes la voie photosynthétique en C3[1].
+Son groupe frère est le clade PACMAD. Contrairement à ce dernier, dont beaucoup d'espèces ont évolué vers la photosynthèse en C4, les plantes du clade BEP utilisent toutes la voie photosynthétique en C3.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des sous-familles, tribus et non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (1 avr. 2013)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (1 avr. 2013) :
 sous-famille des Bambusoideae
 tribu des Arundinarieae
 tribu des Bambuseae
